--- a/Case/CS5/Student spreadsheet modified.xlsx
+++ b/Case/CS5/Student spreadsheet modified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/park-wanbae/Desktop/MFE/2018-1/FIN521/Case/CS5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1239C284-79AD-BB49-AD8C-400E4F05192C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1557F8E7-CE36-264F-92E3-765920632038}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14520" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ex9 modified" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="part_b" sheetId="4" r:id="rId3"/>
     <sheet name="part_c" sheetId="5" r:id="rId4"/>
     <sheet name="part_d" sheetId="6" r:id="rId5"/>
+    <sheet name="Summary" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_AMO_UniqueIdentifier" hidden="1">"'46d9ed12-53bc-43b9-a4f8-c31406f5585f'"</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="46">
   <si>
     <t>DuPont Performance Coatings</t>
   </si>
@@ -184,6 +185,30 @@
     <t>After tax interest expense</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>Cash</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metrics</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change in enterprise value</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales growth</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT margin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terminal EBITDA multiple</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -197,7 +222,7 @@
     <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +292,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -321,7 +355,7 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -383,6 +417,11 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -395,11 +434,8 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
@@ -691,7 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="17"/>
   <cols>
@@ -705,39 +741,39 @@
       <c r="C1" s="33"/>
     </row>
     <row r="2" spans="2:10">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
@@ -970,16 +1006,16 @@
       <c r="I16" s="37"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="21"/>
@@ -1419,7 +1455,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061FABF9-1E13-E742-879F-8A1C16829E57}">
   <dimension ref="B1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="17"/>
   <cols>
@@ -1433,39 +1471,39 @@
       <c r="C1" s="33"/>
     </row>
     <row r="2" spans="2:10">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="43" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="43"/>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1490,19 +1528,19 @@
         <v>0.125</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="50">
+      <c r="E5" s="46">
         <v>0.05</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="46">
         <v>0.05</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="46">
         <v>0.05</v>
       </c>
-      <c r="H5" s="50">
+      <c r="H5" s="46">
         <v>0.05</v>
       </c>
-      <c r="I5" s="50">
+      <c r="I5" s="46">
         <v>0.05</v>
       </c>
       <c r="J5" s="6"/>
@@ -1698,16 +1736,16 @@
       <c r="I16" s="37"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="21"/>
@@ -2134,7 +2172,7 @@
       <c r="B38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="49">
+      <c r="C38" s="45">
         <f>D36-'Ex9 modified'!D36</f>
         <v>146.28550223984439</v>
       </c>
@@ -2155,8 +2193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DB294E-66CE-174C-A706-8C8A8E5E678B}">
   <dimension ref="B1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="17"/>
@@ -2171,39 +2209,39 @@
       <c r="C1" s="33"/>
     </row>
     <row r="2" spans="2:10">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="43" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="43"/>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
@@ -2277,19 +2315,19 @@
         <v>6.3E-2</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="51">
+      <c r="E7" s="47">
         <v>0.12</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="47">
         <v>0.12</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="47">
         <v>0.12</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="47">
         <v>0.12</v>
       </c>
-      <c r="I7" s="51">
+      <c r="I7" s="47">
         <v>0.12</v>
       </c>
     </row>
@@ -2436,16 +2474,16 @@
       <c r="I16" s="37"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="21"/>
@@ -2872,7 +2910,7 @@
       <c r="B38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="49">
+      <c r="C38" s="45">
         <f>D36-part_a!D36</f>
         <v>743.57226476228698</v>
       </c>
@@ -2894,7 +2932,7 @@
   <dimension ref="B1:J38"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="17"/>
@@ -2909,39 +2947,39 @@
       <c r="C1" s="33"/>
     </row>
     <row r="2" spans="2:10">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="43" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="43"/>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
@@ -3015,19 +3053,19 @@
         <v>6.3E-2</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="52">
+      <c r="E7" s="48">
         <v>0.12</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="48">
         <v>0.12</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="48">
         <v>0.12</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="48">
         <v>0.12</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="48">
         <v>0.12</v>
       </c>
     </row>
@@ -3111,7 +3149,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="53">
+      <c r="I11" s="49">
         <v>8</v>
       </c>
     </row>
@@ -3174,16 +3212,16 @@
       <c r="I16" s="37"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="21"/>
@@ -3610,7 +3648,7 @@
       <c r="B38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="49">
+      <c r="C38" s="45">
         <f>D36-part_b!D36</f>
         <v>485.17144444294445</v>
       </c>
@@ -3629,9 +3667,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15674963-CD33-4648-860D-4C213E2D70B1}">
-  <dimension ref="B1:J43"/>
+  <dimension ref="B1:J44"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="17"/>
   <cols>
@@ -3645,39 +3685,39 @@
       <c r="C1" s="33"/>
     </row>
     <row r="2" spans="2:10">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="43" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="43"/>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
@@ -3751,19 +3791,19 @@
         <v>6.3E-2</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="52">
+      <c r="E7" s="48">
         <v>0.12</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="48">
         <v>0.12</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="48">
         <v>0.12</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="48">
         <v>0.12</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="48">
         <v>0.12</v>
       </c>
     </row>
@@ -3910,16 +3950,16 @@
       <c r="I16" s="37"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="21"/>
@@ -4009,11 +4049,26 @@
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
+      <c r="E21" s="25">
+        <f>-D36* $C$12</f>
+        <v>-175.77</v>
+      </c>
+      <c r="F21" s="25">
+        <f>-E36* $C$12</f>
+        <v>-159.52818375000001</v>
+      </c>
+      <c r="G21" s="25">
+        <f>-F36* $C$12</f>
+        <v>-141.47711692734376</v>
+      </c>
+      <c r="H21" s="25">
+        <f>-G36* $C$12</f>
+        <v>-121.59735579054053</v>
+      </c>
+      <c r="I21" s="25">
+        <f>-H36* $C$12</f>
+        <v>-99.953079737124142</v>
+      </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="3" t="s">
@@ -4023,23 +4078,23 @@
       <c r="D22" s="24"/>
       <c r="E22" s="24">
         <f>E20+E21</f>
-        <v>539.40599999999995</v>
+        <v>363.63599999999997</v>
       </c>
       <c r="F22" s="24">
         <f>F20+F21</f>
-        <v>566.37630000000001</v>
+        <v>406.84811624999998</v>
       </c>
       <c r="G22" s="24">
         <f>G20+G21</f>
-        <v>594.6951150000001</v>
+        <v>453.21799807265631</v>
       </c>
       <c r="H22" s="24">
         <f>H20+H21</f>
-        <v>624.42987075000019</v>
+        <v>502.83251495945967</v>
       </c>
       <c r="I22" s="24">
         <f>I20+I21</f>
-        <v>655.6513642875002</v>
+        <v>555.698284550376</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -4050,23 +4105,23 @@
       <c r="D23" s="24"/>
       <c r="E23" s="26">
         <f>-E22*E8</f>
-        <v>-134.85149999999999</v>
+        <v>-90.908999999999992</v>
       </c>
       <c r="F23" s="26">
         <f>-F22*F8</f>
-        <v>-141.594075</v>
+        <v>-101.71202906249999</v>
       </c>
       <c r="G23" s="26">
         <f>-G22*G8</f>
-        <v>-148.67377875000003</v>
+        <v>-113.30449951816408</v>
       </c>
       <c r="H23" s="26">
         <f>-H22*H8</f>
-        <v>-156.10746768750005</v>
+        <v>-125.70812873986492</v>
       </c>
       <c r="I23" s="26">
         <f>-I22*I8</f>
-        <v>-163.91284107187505</v>
+        <v>-138.924571137594</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -4077,23 +4132,23 @@
       <c r="D24" s="24"/>
       <c r="E24" s="24">
         <f>E22+E23</f>
-        <v>404.55449999999996</v>
+        <v>272.72699999999998</v>
       </c>
       <c r="F24" s="24">
         <f>F22+F23</f>
-        <v>424.78222500000004</v>
+        <v>305.13608718749998</v>
       </c>
       <c r="G24" s="24">
         <f>G22+G23</f>
-        <v>446.0213362500001</v>
+        <v>339.91349855449221</v>
       </c>
       <c r="H24" s="24">
         <f>H22+H23</f>
-        <v>468.32240306250014</v>
+        <v>377.12438621959473</v>
       </c>
       <c r="I24" s="24">
         <f>I22+I23</f>
-        <v>491.73852321562515</v>
+        <v>416.773713412782</v>
       </c>
     </row>
     <row r="25" spans="2:9">
@@ -4338,8 +4393,7 @@
         <v>-320.65594153209457</v>
       </c>
       <c r="I34" s="24">
-        <f>-H36</f>
-        <v>-1480.7863664759132</v>
+        <v>-1481</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -4366,7 +4420,7 @@
       </c>
       <c r="I35" s="24">
         <f>I32 -I33 +I34</f>
-        <v>5476.4319400299955</v>
+        <v>5476.2183065059089</v>
       </c>
     </row>
     <row r="36" spans="2:9">
@@ -4396,95 +4450,122 @@
       </c>
       <c r="I36" s="24">
         <f>H36 + I34</f>
-        <v>0</v>
+        <v>-0.21363352408684477</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="29">
+        <f>D36</f>
+        <v>2604</v>
+      </c>
+      <c r="E37" s="24">
+        <f>D37 + E35</f>
+        <v>2604</v>
+      </c>
+      <c r="F37" s="24">
+        <f>E37 + F35</f>
+        <v>2604</v>
+      </c>
+      <c r="G37" s="24">
+        <f>F37 + G35</f>
+        <v>2604</v>
+      </c>
+      <c r="H37" s="24">
+        <f>G37 + H35</f>
+        <v>2604</v>
+      </c>
+      <c r="I37" s="24"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28">
+      <c r="C38" s="27"/>
+      <c r="D38" s="28">
         <f>NPV(C13,E32:I32)</f>
         <v>5344.5319850219739</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="3" t="s">
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30">
+      <c r="C39" s="27"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="30">
         <f>D36 * $C$12 * $C$8</f>
         <v>43.942500000000003</v>
       </c>
-      <c r="F38" s="30">
+      <c r="F39" s="30">
         <f>E36 * $C$12 * $C$8</f>
         <v>39.882045937500003</v>
       </c>
-      <c r="G38" s="30">
+      <c r="G39" s="30">
         <f>F36 * $C$12 * $C$8</f>
         <v>35.369279231835939</v>
       </c>
-      <c r="H38" s="30">
+      <c r="H39" s="30">
         <f>G36 * $C$12 * $C$8</f>
         <v>30.399338947635133</v>
       </c>
-      <c r="I38" s="30">
+      <c r="I39" s="30">
         <f>H36 * $C$12 * $C$8</f>
         <v>24.988269934281035</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="3" t="s">
+    <row r="40" spans="2:9">
+      <c r="B40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="29">
-        <f>NPV(C12,E38:I38)</f>
+      <c r="C40" s="27"/>
+      <c r="D40" s="29">
+        <f>NPV(C12,E39:I39)</f>
         <v>146.67241554600915</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="18" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="32">
-        <f>D37+D36 + D39</f>
-        <v>8095.2044005679827</v>
-      </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-    </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="3" t="s">
+      <c r="C42" s="31"/>
+      <c r="D42" s="32">
+        <f>D38+D36 - D37 + D40</f>
+        <v>5491.2044005679827</v>
+      </c>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="49">
-        <f>D41-part_b!D36</f>
-        <v>3235.8438599889532</v>
+      <c r="C44" s="45">
+        <f>D42-part_c!D36</f>
+        <v>146.67241554600878</v>
       </c>
     </row>
   </sheetData>
@@ -4498,4 +4579,66 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E247A2-7874-F34D-B562-6B6CD2C8A64A}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="54">
+        <f>part_a!C38</f>
+        <v>146.28550223984439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="54">
+        <f>part_b!C38</f>
+        <v>743.57226476228698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="54">
+        <f>part_c!C38</f>
+        <v>485.17144444294445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="54">
+        <f>part_d!C44</f>
+        <v>146.67241554600878</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>